--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
+          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Inversiones Concoto Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
+          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Inversiones Concoto Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
+          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inversiones Concoto Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
+          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Inversiones Concoto Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 110662, Ovalada</t>
+          <t>Modificación de biomasa del cultivo de Salmón Atlántico, RCA 371/2008, CES Leucayec, Código de Centro 110860</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/06/2020</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146735900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156529126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE ENGORDA DE SALMONES, LEUCAYEC. CÓDIGO DE CENTRO N° 110860. PERT 219111073</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 110662, Ovalada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/05/2020</t>
+          <t>05/06/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146500781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146735900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas, Melinka Región de Aysén</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE ENGORDA DE SALMONES, LEUCAYEC. CÓDIGO DE CENTRO N° 110860. PERT 219111073</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ilustre Municipalidad de Guaitecas</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14171</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/02/2020</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144437927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146500781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico. Centro de Engorda de Salmones, Leucayec. Código de Centro N° 110860. PERT 219111073</t>
+          <t>Planta de tratamiento de aguas servidas, Melinka Región de Aysén</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>ilustre Municipalidad de Guaitecas</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>14171</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12/12/2019</t>
+          <t>21/02/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145150608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144437927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE ENGORDA DE SALMONES LEUCAYEC (110860), COMUNA DE GUAITECAS, REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico. Centro de Engorda de Salmones, Leucayec. Código de Centro N° 110860. PERT 219111073</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/08/2017</t>
+          <t>12/12/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132636346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145150608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO DE SALMÓNIDOS ISLA OVALADA, COMUNA DE GUAITECAS, REGIÓN DE AYSÉN, PERT. N° 216111007</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE ENGORDA DE SALMONES LEUCAYEC (110860), COMUNA DE GUAITECAS, REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/12/2016</t>
+          <t>22/08/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132636346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Este de Isla Sierra, Código de Centro Nº 110777 (Isla Sierra Costa E)"</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO DE SALMÓNIDOS ISLA OVALADA, COMUNA DE GUAITECAS, REGIÓN DE AYSÉN, PERT. N° 216111007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/07/2014</t>
+          <t>12/12/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129611446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Canal Costa de Quila, al Norte de Isla Sánchez, Código de Centro Nº 110824 (Isla Sánchez)</t>
+          <t>Modificación Centro de Engorda de Salmones, Este de Isla Sierra, Código de Centro Nº 110777 (Isla Sierra Costa E)"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>10/07/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129491255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129611446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE SALMÓNIDOS OVALADA, SENO ELISA, AL SURESTE DE PUNTA LEMEMO, XI REGIÓN, N° DE SOLICITUD 210110001".</t>
+          <t>Modificación Centro de Engorda de Salmones Canal Costa de Quila, al Norte de Isla Sánchez, Código de Centro Nº 110824 (Isla Sánchez)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129491255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones El Pino</t>
+          <t>"CENTRO DE CULTIVO DE SALMÓNIDOS OVALADA, SENO ELISA, AL SURESTE DE PUNTA LEMEMO, XI REGIÓN, N° DE SOLICITUD 210110001".</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/09/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Lagreze Norte</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones El Pino</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/08/2013</t>
+          <t>09/09/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES SUROESTE LEUCAYEC (110860), COMUNA DE GUAITECAS, DÉCIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Lagreze Norte</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>28/01/2013</t>
+          <t>19/08/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7817535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C. E. S., Isla Leucayec, Sector 2 Sureste, XI Región, Pert 212111024 Modificación Proyecto Técnico C. E. S., Isla Leuca</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES SUROESTE LEUCAYEC (110860), COMUNA DE GUAITECAS, DÉCIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cultivos Yadran S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>28/01/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7104503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7817535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Lagreze Norte</t>
+          <t>Modificación Proyecto Técnico C. E. S., Isla Leucayec, Sector 2 Sureste, XI Región, Pert 212111024 Modificación Proyecto Técnico C. E. S., Isla Leuca</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Cultivos Yadran S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>28/06/2012</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7042727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7104503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Fresia Sur</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Lagreze Norte</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,21 +1115,21 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/05/2012</t>
+          <t>28/06/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6891089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7042727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Fresia Weste"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Fresia Sur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6901793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6891089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Guaitecas 2</t>
+          <t>"Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Fresia Weste"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6901830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6901793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Lagreze Weste</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Guaitecas 2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6902082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6901830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de salmones Betecoi</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Lagreze Weste</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2000</v>
+        <v>34</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>14/05/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6398513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6902082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación del ProyectoTécnico Centro Engorda de Salmones El Pino</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de salmones Betecoi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6398513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR NORESTE ISLA OVALADA, CANAL PEREZ NORTE, COMUNA GUAITECAS, XI REGIÓN DE AYSEN. Solicitud N° 208111088</t>
+          <t>Modificación del ProyectoTécnico Centro Engorda de Salmones El Pino</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/02/2011</t>
+          <t>19/12/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS CANAL TUAMAPU, SECTOR NORESTE DE ISLOTES GEMELOS, COMUNA GUAITECAS, XI REGIÓN DE AYSEN. Solicitud N° 208111095</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR NORESTE ISLA OVALADA, CANAL PEREZ NORTE, COMUNA GUAITECAS, XI REGIÓN DE AYSEN. Solicitud N° 208111088</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR NORESTE ISLA LAUREL, CANAL LEUCAYEC, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 207111485</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS CANAL TUAMAPU, SECTOR NORESTE DE ISLOTES GEMELOS, COMUNA GUAITECAS, XI REGIÓN DE AYSEN. Solicitud N° 208111095</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>23/02/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5374944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR SUROESTE ISLOTE SIN NOMBRE, CANAL PÉREZ NORTE, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 208111092</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR NORESTE ISLA LAUREL, CANAL LEUCAYEC, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 207111485</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5374960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5374944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR ENSENADA AL SUR ISLA BETECOI, COMUNA GUAITECAS, XI REGIÓN DE AYSEN</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR SUROESTE ISLOTE SIN NOMBRE, CANAL PÉREZ NORTE, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 208111092</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5375708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5374960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR SUROESTE ISLA BETECOI, CANAL TUAMAPU, COMUNA GUAITECAS, XI REGIÓN DE AYSEN</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR ENSENADA AL SUR ISLA BETECOI, COMUNA GUAITECAS, XI REGIÓN DE AYSEN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5375765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5375708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR NORTE ISLA SIERRA, CANAL TUAMAPU, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 208111093</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR SUROESTE ISLA BETECOI, CANAL TUAMAPU, COMUNA GUAITECAS, XI REGIÓN DE AYSEN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5376437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5375765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR COSTA OESTE ISLA LAUREL, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 208111091</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR NORTE ISLA SIERRA, CANAL TUAMAPU, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 208111093</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5376437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Diseño para el Mejoramiento de Conectividad Marítima Región de Aysén Melinka-Puerto Cisnes. Sector Melinka</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMÓNIDOS SECTOR COSTA OESTE ISLA LAUREL, COMUNA GUAITECAS, XI REGIÓN DE AYSEN" Solicitud N° 208111091</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>11445</v>
+        <v>6</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5250728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS ISLA SANCHEZ SE, XI REGION, Nº de Ingreso a Trámite: 208111100 (Código del Centro: 110575) MARINE HARVEST CHILE S.A.</t>
+          <t>Diseño para el Mejoramiento de Conectividad Marítima Región de Aysén Melinka-Puerto Cisnes. Sector Melinka</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2000</v>
+        <v>11445</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>20/01/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4884327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5250728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS ISLA MIKE SW, XI REGION, Nº de Ingreso a Trámite: 208111099 (Código del Centro: 110573) MARINE HARVEST CHILE S.A.</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS ISLA SANCHEZ SE, XI REGION, Nº de Ingreso a Trámite: 208111100 (Código del Centro: 110575) MARINE HARVEST CHILE S.A.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4884338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4884327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Diseño para el Mejoramiento de Conectividad Marítima Región de Aysén Melinka - Puerto Cisnes. Melinka. Melinka</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS ISLA MIKE SW, XI REGION, Nº de Ingreso a Trámite: 208111099 (Código del Centro: 110573) MARINE HARVEST CHILE S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>11445</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4884338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación de CES, ¿Islote Weste Isla Jesús 1 ¿ Islas Guaitecas, Pert N° 203111171, Código de Centro 110713¿</t>
+          <t>Diseño para el Mejoramiento de Conectividad Marítima Región de Aysén Melinka - Puerto Cisnes. Melinka. Melinka</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>11445</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/03/2010</t>
+          <t>20/08/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN ISLA OVALADA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>Modificación de CES, ¿Islote Weste Isla Jesús 1 ¿ Islas Guaitecas, Pert N° 203111171, Código de Centro 110713¿</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>26/03/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE SALMONIDOS CANAL PEREZ NORTE, SECTOR AL SUROESTE DE ISLA LEUCAYEC PERT Nº 208111089 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN ISLA OVALADA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LAGREZE W, XI REGION (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE SALMONIDOS CANAL PEREZ NORTE, SECTOR AL SUROESTE DE ISLA LEUCAYEC PERT Nº 208111089 (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/12/2008</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3620465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CALETA MOMIA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS LAGREZE W, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CUERVO NORTE, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CALETA MOMIA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/12/2008</t>
+          <t>24/12/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3460920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CUERVO, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CUERVO NORTE, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS FRESIA WESTE, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CUERVO, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3435067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS GUAITECAS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS FRESIA WESTE, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3435247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3435067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS FRESIA SUR, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS GUAITECAS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3435362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3435247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS FRESIA SUR, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/10/2008</t>
+          <t>15/12/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3435362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico del centro de cultivo de salmonidos, Bobe XI región (e-seia)</t>
+          <t>Sistema de Cosecha, Matanza y Prefaenamiento de Salmonidos in situ (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/09/2008</t>
+          <t>08/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3106755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3247720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificación de proyecto técnico en centro de cultivo de Salmonodos Ceres, XI región (serie: 208111094) (e-seia)</t>
+          <t>Modificación Proyecto Técnico del centro de cultivo de salmonidos, Bobe XI región (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3109012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3106755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Modificación de proyecto técnico en centro de cultivo de Salmonodos Ceres, XI región (serie: 208111094) (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>22/09/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3109012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Canal Sin Nombre Isla Amita Sector Costa Norte (no. pert 204111171) (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salmones Melinka Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2661933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS ISLA LEUCAYEC, XI REGION (e-seia)</t>
+          <t>Centro de Cultivo Canal Sin Nombre Isla Amita Sector Costa Norte (no. pert 204111171) (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Salmones Melinka Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2661933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CES Canal Tuamapu, Lado Noreste Isla Larenas (Sector 1), Comuna de Las Guaitecas, XI región, Nº PERT 203111093 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS ISLA LEUCAYEC, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Servicios Pesqueros Chacabuco S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2546258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CES Canal Tuamapu, Lado Noreste Isla Larenas (Sector 1), Comuna de Las Guaitecas, XI región, Nº PERT 203111093 (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicios Pesqueros Chacabuco S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/12/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2546258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCION EN CENTRO DE CULTIVO DE SALMONIDOS LAGREZE WESTE (Ex.: GUAITECA ESTE, XI REGIÓN (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2083806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN EN CENTRO DE CULTIVO DE SALMÓNIDOS CUERVO, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCION EN CENTRO DE CULTIVO DE SALMONIDOS LAGREZE WESTE (Ex.: GUAITECA ESTE, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2083829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2083806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN EN CENTRO DE CULTIVO DE SALMONIDOS FRESIA SUR, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN EN CENTRO DE CULTIVO DE SALMÓNIDOS CUERVO, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>HUMBERTO JOSE FISCHER LLOP</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/01/2007</t>
+          <t>04/04/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1961581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2083829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN EN CENTRO DE CULTIVOS DE SALMÓNIDOS FRESIA SUR, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN EN CENTRO DE CULTIVO DE SALMONIDOS FRESIA SUR, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>29/01/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1942628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1961581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SUROESTE ISLOTE SIN NOMBRE N° PERT 200111286 . 2P (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN EN CENTRO DE CULTIVOS DE SALMÓNIDOS FRESIA SUR, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>HUMBERTO JOSE FISCHER LLOP</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1942628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SUROESTE ISLOTE SIN NOMBRE N° PERT 200111286 . 2P (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>8500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8500</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>8500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>08/01/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CES canal perez norte sector sur oeste islote sin nombre 200111286 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8500</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/04/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CES canal tuamapu sector nor este islotes gemelos (e-seia)</t>
+          <t>CES canal perez norte sector sur oeste islote sin nombre 200111286 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/04/2006</t>
+          <t>17/04/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1398253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CES canal perez norte sector costa este isla ceres 200111297 (e-seia)</t>
+          <t>CES canal tuamapu sector nor este islotes gemelos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CES canal tuamapu sector extremo norte isla sierra 200111301 (e-seia)</t>
+          <t>CES canal perez norte sector costa este isla ceres 200111297 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1399985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CES canal Perez norte sector sur este isla bobe, Pert Nº 200111306 (e-seia)</t>
+          <t>CES canal tuamapu sector extremo norte isla sierra 200111301 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389921&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CES Islas Guaitecas Sector costa sur oeste isla betecoi 200111289 (e-seia)</t>
+          <t>CES canal Perez norte sector sur este isla bobe, Pert Nº 200111306 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1394066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389921&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CES Islas guaitecas sector ensenada isla betecoi 200111290 (e-seia)</t>
+          <t>CES Islas Guaitecas Sector costa sur oeste isla betecoi 200111289 (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1397025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1394066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CES Islas guaitecas sector ensenada isla betecoi 200111290 (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/04/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1397025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Islote Sin Nombre (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Erik Leonel Montes Lagos</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1277695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ensenada Betecoi N° Pert 200111290 (e-seia)</t>
+          <t>Islote Sin Nombre (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1277876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1277695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sur-Este Isla Bobe Pert N° 200111306 (e-seia)</t>
+          <t>Ensenada Betecoi N° Pert 200111290 (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1277876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nor-Este Islotes Gemelos Pert N° 200111291 (e-seia)</t>
+          <t>Sur-Este Isla Bobe Pert N° 200111306 (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Norte Isla Sierra N° Pert 200111301 (e-seia)</t>
+          <t>Nor-Este Islotes Gemelos Pert N° 200111291 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sur - Oeste Isla Betecoi (e-seia)</t>
+          <t>Norte Isla Sierra N° Pert 200111301 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos, Canal Cuervo Sector Sureste de Isla Guaiteca, XI Región (e-seia)</t>
+          <t>Sur - Oeste Isla Betecoi (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>Erik Leonel Montes Lagos</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Salmónidos Sector Suroeste de Isla Fresia, XI Región 99110064 (e-seia)</t>
+          <t>Centro de Cultivo de Salmónidos, Canal Cuervo Sector Sureste de Isla Guaiteca, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDOS, CANAL BETECOI, SECTOR ISLA FRESIA, XI REGIÓN, PERT 97110048 (e-seia)</t>
+          <t>Centros de Cultivo de Salmónidos Sector Suroeste de Isla Fresia, XI Región 99110064 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>HUMBERTO JOSE FISCHER LLOP</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Salmónidos Caleta Momia XI Región 99110074 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDOS, CANAL BETECOI, SECTOR ISLA FRESIA, XI REGIÓN, PERT 97110048 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>HUMBERTO JOSE FISCHER LLOP</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Cuervo Norte XI Región 99110069 (e-seia)</t>
+          <t>Centros de Cultivo de Salmónidos Caleta Momia XI Región 99110074 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Gaiteca II, XI Región, Empresas Aquachile S.A. (e-seia)</t>
+          <t>Centro de Cultivo de Salmónidos Cuervo Norte XI Región 99110069 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Guaiteca Este, XI Región (e-seia)</t>
+          <t>Centro de Cultivo de Salmónidos Gaiteca II, XI Región, Empresas Aquachile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Salmónidos Cuervo Sur, XI Región (e-seia)</t>
+          <t>Centro de Cultivo de Salmónidos Guaiteca Este, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS SECTOR SUR WESTE ISLA SANCHEZ, COMUNA DE GUAITECAS, XI REGIÓN, N° PERT. 201111134 (e-seia)</t>
+          <t>Centros de Cultivo de Salmónidos Cuervo Sur, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02/05/2005</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS SECTOR SUR WESTE ISLA SANCHEZ, COMUNA DE GUAITECAS, XI REGIÓN, N° PERT. 201111134 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1400</v>
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/11/2004</t>
+          <t>02/05/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=516246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inversiones Concoto Ltda.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18/11/2004</t>
+          <t>22/11/2004</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=516246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
+          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Inversiones Concoto Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>18/11/2004</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CES, Paso del Chacao, Lado Sur Isla Leucayec, N° Pert 200111533 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>José Ivar Pacheco Alvarado</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1400</v>
+        <v>4000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/06/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=387903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS GUAITECA II, XI REGIÓN, SALMONES PACIFICO SUR S.A. Pert Nº 99110068 (e-seia)</t>
+          <t>CES, Paso del Chacao, Lado Sur Isla Leucayec, N° Pert 200111533 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>José Ivar Pacheco Alvarado</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/03/2004</t>
+          <t>29/06/2004</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=290729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=387903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CES, Isla Sánchez Sector Weste, Pert N° 201111135 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS GUAITECA II, XI REGIÓN, SALMONES PACIFICO SUR S.A. Pert Nº 99110068 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Pesquera Eicosal Ltda.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>19/02/2004</t>
+          <t>15/03/2004</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=290729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CES, Isla Mulchey Sector Este, Pert N° 201111143 (e-seia)</t>
+          <t>CES, Isla Sánchez Sector Weste, Pert N° 201111135 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/12/2003</t>
+          <t>19/02/2004</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CES, Isla Mulchey Sector Sur-este, Pert N° 201111145 (e-seia)</t>
+          <t>CES, Isla Mulchey Sector Este, Pert N° 201111143 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS GUAITECA I, XI REGIÓN, SALMONES PACIFICO SUR S.A. Nº de pert 99110071 (e-seia)</t>
+          <t>CES, Isla Mulchey Sector Sur-este, Pert N° 201111145 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Salmones Pacífico Sur S.A.</t>
+          <t>Pesquera Eicosal Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/11/2003</t>
+          <t>16/12/2003</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=199551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=225710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CES, Isla Leucayec Sector 2 Sur-este, Pert N° 201112213 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS GUAITECA I, XI REGIÓN, SALMONES PACIFICO SUR S.A. Nº de pert 99110071 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cultivos Yadran S.A.</t>
+          <t>Salmones Pacífico Sur S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/10/2003</t>
+          <t>13/11/2003</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=175264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=199551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro de Engorda Salmidos norte isla falsa Melinka al este isla ascencion,pert 201111510 (e-seia)</t>
+          <t>CES, Isla Leucayec Sector 2 Sur-este, Pert N° 201112213 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Max Engles Castillo Vera</t>
+          <t>Cultivos Yadran S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/06/2003</t>
+          <t>15/10/2003</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=175264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salnidos Sureste de Punta Manzano Isla Leucayec, Pert 201111513 (e-seia)</t>
+          <t>Centro de Engorda Salmidos norte isla falsa Melinka al este isla ascencion,pert 201111510 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental, entro de engorda de salmones Isla May Nº Pert Nº 201111191, Undécima Región. (e-seia)</t>
+          <t>Centro de Engorda de Salnidos Sureste de Punta Manzano Isla Leucayec, Pert 201111513 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Max Engles Castillo Vera</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/05/2003</t>
+          <t>09/06/2003</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=81425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Centro de Engorda de salmones, Canal Pérez Norte Sector Sur-oeste Islote sin Nombre, N° Pert 200111286 (e-seia)</t>
+          <t>Declaración de Impacto Ambiental, entro de engorda de salmones Isla May Nº Pert Nº 201111191, Undécima Región. (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>24/03/2003</t>
+          <t>15/05/2003</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=60049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=81425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Oeste Isla Ceres, N° Pert 200111287 (e-seia)</t>
+          <t>Centro de Engorda de salmones, Canal Pérez Norte Sector Sur-oeste Islote sin Nombre, N° Pert 200111286 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=60053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=60049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Centro Cultivo de Salmones Isla Sánchez, Pert 201111132 (e-seia)</t>
+          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Oeste Isla Ceres, N° Pert 200111287 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,11 +5435,11 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14/03/2003</t>
+          <t>24/03/2003</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=60053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Isla sin Nombre, Pert. 201111119 (e-seia)</t>
+          <t>Centro Cultivo de Salmones Isla Sánchez, Pert 201111132 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pesquera Eicosal Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Centro Cultivo de Salmones Islote Catitas, Pert.201111131 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Isla sin Nombre, Pert. 201111119 (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Isla Mike, Pert 201111141 (e-seia)</t>
+          <t>Centro Cultivo de Salmones Islote Catitas, Pert.201111131 (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Isla Luisa Comuna de Las Guaitecas Pert. 201111120.</t>
+          <t>Centro de Cultivo de Salmones Isla Mike, Pert 201111141 (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,11 +5627,11 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15/01/2003</t>
+          <t>14/03/2003</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Isla Serrano, XI Región (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos Isla Luisa Comuna de Las Guaitecas Pert. 201111120.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Pesquera Eicosal Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>04/12/2002</t>
+          <t>15/01/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Isla Verdugo, XI Región (e-seia)</t>
+          <t>Centro de engorda de salmones Isla Serrano, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>José Ivar Pacheco Alvarado</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=37346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Ensenada Sur-este Isla Gusanillo, N° Pert 200111313 (e-seia)</t>
+          <t>Centro de Engorda de Salmones Isla Verdugo, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>José Ivar Pacheco Alvarado</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20/11/2002</t>
+          <t>04/12/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=37346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Engordas de Salmones Isla Concoto Comuna de Las Guaitecas XI Región N° Pert. 200111532.</t>
+          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Ensenada Sur-este Isla Gusanillo, N° Pert 200111313 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>20/11/2002</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Ensenada Extremo Nor-este Isla Concoto, N° Pert 200111300 (e-seia)</t>
+          <t>Centro de Engordas de Salmones Isla Concoto Comuna de Las Guaitecas XI Región N° Pert. 200111532.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>8500</v>
+        <v>750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>21/10/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Extremo Norte Isla Gusano, N° Pert 200111310 (e-seia)</t>
+          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Ensenada Extremo Nor-este Isla Concoto, N° Pert 200111300 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SALMONES TECMAR S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Costa Norte Isla Concoto, N° Pert 200111312 (e-seia)</t>
+          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Extremo Norte Isla Gusano, N° Pert 200111310 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>SALMONES TECMAR S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Extremo Nor-este Isla Ovalada, N° Pert 200111307 (e-seia)</t>
+          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Costa Norte Isla Concoto, N° Pert 200111312 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>18/10/2002</t>
+          <t>21/10/2002</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Sur-oeste Isla Leucayec, N° Pert 200111308 (e-seia)</t>
+          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Extremo Nor-este Isla Ovalada, N° Pert 200111307 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones, Canal Pérez Norte Sector Sur-oeste Isla Leucayec, N° Pert 200111308 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>26/09/2002</t>
+          <t>18/10/2002</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Canal Pérez Norte Sector Norte Isla Yack Pert. 200111305</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/09/2002</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Canal Pérez Norte Sector sur-este Isla Bobe Pert. 200111306</t>
+          <t>Centro de Engorda de Salmones Canal Pérez Norte Sector Norte Isla Yack Pert. 200111305</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Canal Tuamapu sector extremo norte Isla Sierra Pert. 200111301</t>
+          <t>Centro de Engorda de Salmones Canal Pérez Norte Sector sur-este Isla Bobe Pert. 200111306</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Canal Tuamapu sector Islote sin nombre al Este de Isla Sierra Pert. 200111302</t>
+          <t>Centro de Engorda de Salmones Canal Tuamapu sector extremo norte Isla Sierra Pert. 200111301</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Islas Guaitecas Sector Costa Oeste Isla Laurel Pert. 200111298</t>
+          <t>Centro de Engorda de Salmones Canal Tuamapu sector Islote sin nombre al Este de Isla Sierra Pert. 200111302</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela Municipal de Melinka</t>
+          <t>Centro de Engorda de Salmones Islas Guaitecas Sector Costa Oeste Isla Laurel Pert. 200111298</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Guitecas</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>16</v>
+        <v>8500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5822&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Regularización Muelle e Instalación de Sistema de Tratamiento y Emisario Submarino para la Disposición de RILES</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela Municipal de Melinka</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Ilustre Municipalidad de Guitecas</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>02/09/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5822&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Canal Tuamapu Sector Nor-este Islotes Gemelos Nº Pert. 200111291</t>
+          <t>Regularización Muelle e Instalación de Sistema de Tratamiento y Emisario Submarino para la Disposición de RILES</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>8500</v>
+        <v>90</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13/08/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Isla Guaitecas Sector Nor Este Isla Laurel Pert. 200111288</t>
+          <t>Centro de Engorda de Salmones Canal Tuamapu Sector Nor-este Islotes Gemelos Nº Pert. 200111291</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>13/08/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Isla Guaitecas Sector Costa Sur Oeste Isla Betecoi</t>
+          <t>Centro de Engorda de Salmones Isla Guaitecas Sector Nor Este Isla Laurel Pert. 200111288</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Islas Guaitecas Sector Ensenada Isla Betecoi Pert. 200111290</t>
+          <t>Centro de Engorda de Salmones Isla Guaitecas Sector Costa Sur Oeste Isla Betecoi</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos y Pectínidos Pert. 200111017</t>
+          <t>Centro de Engorda de Salmones Islas Guaitecas Sector Ensenada Isla Betecoi Pert. 200111290</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Elba Quediman Ayan</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>8500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos Pert. 200111018</t>
+          <t>Cultivo de Mitílidos Ostreidos y Pectínidos Pert. 200111017</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Francisco Javier soto Vargas</t>
+          <t>Elba Quediman Ayan</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Cuervo Norte Pert. 97110056</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos Pert. 200111018</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>HUMBERTO JOSE FISCHER LLOP</t>
+          <t>Francisco Javier soto Vargas</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonidos Emma Pert. 97110052</t>
+          <t>Centro de Cultivo de Salmónidos Cuervo Norte Pert. 97110056</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonidos Isla Clotilde XI Región Pert. 96110260</t>
+          <t>Centro de Cultivo de Salmonidos Emma Pert. 97110052</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>HUMBERTO JOSE FISCHER LLOP</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonidos Caleta Momia Pert. 99110074</t>
+          <t>Centro de Engorda de Salmonidos Isla Clotilde XI Región Pert. 96110260</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/04/2002</t>
+          <t>09/05/2002</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Guaiteca Este XI Región Pert. 99110072</t>
+          <t>Centro de Cultivo de Salmonidos Caleta Momia Pert. 99110074</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Canal Cuervo Sector Sureste de Isla Guaiteca XI Región Nº PERT 99110066</t>
+          <t>Centro de Cultivo de Salmónidos Guaiteca Este XI Región Pert. 99110072</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>18/04/2002</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Sureste de Isla Fresia XI Región Nº PERT 99110064</t>
+          <t>Centro de Cultivo de Salmónidos Canal Cuervo Sector Sureste de Isla Guaiteca XI Región Nº PERT 99110066</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Salmones Pacífico Sur S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Pectinidos Ostreidos y Algas</t>
+          <t>Centro de Cultivo de Salmónidos Sureste de Isla Fresia XI Región Nº PERT 99110064</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Elsa Amalia Puinao Haro</t>
+          <t>Salmones Pacífico Sur S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06/02/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonidos Canal Betecoi Sector Isla Fresia XI Región PERT Nº 97110048</t>
+          <t>Cultivo de Mitilidos Pectinidos Ostreidos y Algas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Elsa Amalia Puinao Haro</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>04/02/2002</t>
+          <t>06/02/2002</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónidos Canal Lagreze Sector Isla Clotilde Pert 96110225</t>
+          <t>Centro de Cultivo de Salmonidos Canal Betecoi Sector Isla Fresia XI Región PERT Nº 97110048</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Thomas Chace Kehler</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>610</v>
+        <v>2500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11/01/2002</t>
+          <t>04/02/2002</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Almejas Pectínidos y Ostreidos Pert 99110052</t>
+          <t>Centro de Engorda de Salmónidos Canal Lagreze Sector Isla Clotilde Pert 96110225</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>José Genaro Barria Barrientos</t>
+          <t>Thomas Chace Kehler</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>03/01/2002</t>
+          <t>11/01/2002</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Cultivos de Salmonidos Sector Sur de Isla Günter XI Región Pert 97110049</t>
+          <t>Cultivo de Mitílidos Almejas Pectínidos y Ostreidos Pert 99110052</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>HUMBERTO JOSE FISCHER LLOP</t>
+          <t>José Genaro Barria Barrientos</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>26/12/2001</t>
+          <t>03/01/2002</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Pectinidos Ostreidos y Algas Pert 98110176</t>
+          <t>Centro de Cultivos de Salmonidos Sector Sur de Isla Günter XI Región Pert 97110049</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Juan Carlos Vargas Guzmán</t>
+          <t>HUMBERTO JOSE FISCHER LLOP</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/12/2001</t>
+          <t>26/12/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Pectínidos Ostreidos y Algas Pert 98110180</t>
+          <t>Cultivo de Mitílidos Pectinidos Ostreidos y Algas Pert 98110176</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>José Antonio Antecao Lemus</t>
+          <t>Juan Carlos Vargas Guzmán</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Pectinidos y Ostreidos Pert 98110178</t>
+          <t>Cultivo de Mitílidos Pectínidos Ostreidos y Algas Pert 98110180</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Marcos Rafael Silva Miranda</t>
+          <t>José Antonio Antecao Lemus</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivo de Ostreidos y Mitílidos Pert 98110171</t>
+          <t>Cultivo de Mitílidos Pectinidos y Ostreidos Pert 98110178</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Daniel Segundo Quediman Ayan</t>
+          <t>Marcos Rafael Silva Miranda</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Pectinos y Ostreidos Pert 98110032</t>
+          <t>Cultivo de Ostreidos y Mitílidos Pert 98110171</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Carlos Molinet Flores</t>
+          <t>Daniel Segundo Quediman Ayan</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>20/12/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Isla Peligrosas Thomas Chace Kehler Nº Pert. 96110159 96110162</t>
+          <t>Cultivo de Mitílidos Pectinos y Ostreidos Pert 98110032</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Thomas Chace Kehler</t>
+          <t>Carlos Molinet Flores</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,43 +7672,91 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>Centro de Engorda de Salmones Isla Peligrosas Thomas Chace Kehler Nº Pert. 96110159 96110162</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Thomas Chace Kehler</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>23/11/2001</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4812&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Las Guaitecas</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>Sistema de Servicio de Agua Potable Rural de la Localidad de Repollal Comuna de Guaitecas</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Undécima</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Undécima</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
-      <c r="F153" t="n">
+      <c r="F154" t="n">
         <v>290</v>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>28/08/1998</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1499&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>Las Guaitecas</t>
         </is>

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
+          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Inversiones Concoto Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
+          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Inversiones Concoto Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
+          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Inversiones Concoto Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DIA CES, Canal sin Nombre Isla Sierra Sector Costa Este, Pert N° 203111142 (e-seia)</t>
+          <t>DIA CES, Canal Moraleda Sector Costa Oeste Isla Evira, Pert N° 203111238 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Inversiones Concoto Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -4820,7 +4820,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F133" t="n">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA SUROESTE ISLA BETECOI Nº 200111289 2P (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES CANAL PEREZ NORTE SECTOR SURESTE ISLA BOBE 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ENSENADA ISLA BETECOI N° PERT 200111290. 2P. (e-seia)</t>
+          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES CANAL TUAMAPU SECTOR EXTREMO NORTE ISLA SIERRA Nº PERT 200111301. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE ENGORDA DE SALMONES SECTOR ISLOTES GEMELOS Nº 200111291 2P. (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONES COSTA ESTE ISLA CERES Nº PERT 200111297. 2P. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1906031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1905198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>José Ivar Pacheco Alvarado</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
+          <t>Centro de Engorda de Salmones (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones (e-seia)</t>
+          <t>Centro de Engorda de Salmonideos Isla Sánchez Comuna Las Guaitecas Pert. 200111534</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Las Guaitecas.xlsx
+++ b/data/Las Guaitecas.xlsx
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F127" t="n">
